--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H2">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I2">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J2">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N2">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O2">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P2">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q2">
-        <v>15.96187462096928</v>
+        <v>16.415282182247</v>
       </c>
       <c r="R2">
-        <v>15.96187462096928</v>
+        <v>65.661128728988</v>
       </c>
       <c r="S2">
-        <v>0.03684837089127818</v>
+        <v>0.03229726531525914</v>
       </c>
       <c r="T2">
-        <v>0.03684837089127818</v>
+        <v>0.01833953669638874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H3">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I3">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J3">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N3">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O3">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P3">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q3">
-        <v>12.53733253669466</v>
+        <v>13.45130342828133</v>
       </c>
       <c r="R3">
-        <v>12.53733253669466</v>
+        <v>80.707820569688</v>
       </c>
       <c r="S3">
-        <v>0.02894273324841846</v>
+        <v>0.02646560143383347</v>
       </c>
       <c r="T3">
-        <v>0.02894273324841846</v>
+        <v>0.02254216559591214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H4">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I4">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J4">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N4">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O4">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P4">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q4">
-        <v>9.941955489759675</v>
+        <v>12.37171791831733</v>
       </c>
       <c r="R4">
-        <v>9.941955489759675</v>
+        <v>74.23030750990399</v>
       </c>
       <c r="S4">
-        <v>0.02295124300688171</v>
+        <v>0.0243415039459739</v>
       </c>
       <c r="T4">
-        <v>0.02295124300688171</v>
+        <v>0.02073295837147402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H5">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I5">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J5">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N5">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O5">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P5">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q5">
-        <v>15.34491075450325</v>
+        <v>16.00041788921333</v>
       </c>
       <c r="R5">
-        <v>15.34491075450325</v>
+        <v>96.00250733527999</v>
       </c>
       <c r="S5">
-        <v>0.0354240949889859</v>
+        <v>0.03148101482421205</v>
       </c>
       <c r="T5">
-        <v>0.0354240949889859</v>
+        <v>0.02681406092617794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H6">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I6">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J6">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N6">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O6">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P6">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q6">
-        <v>10.68704568373019</v>
+        <v>11.11365607543533</v>
       </c>
       <c r="R6">
-        <v>10.68704568373019</v>
+        <v>66.68193645261199</v>
       </c>
       <c r="S6">
-        <v>0.02467130161320677</v>
+        <v>0.0218662521244422</v>
       </c>
       <c r="T6">
-        <v>0.02467130161320677</v>
+        <v>0.01862465425482471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.20284979621899</v>
+        <v>3.242018</v>
       </c>
       <c r="H7">
-        <v>3.20284979621899</v>
+        <v>6.484036</v>
       </c>
       <c r="I7">
-        <v>0.1706036223798688</v>
+        <v>0.1552620467498036</v>
       </c>
       <c r="J7">
-        <v>0.1706036223798688</v>
+        <v>0.117734595592262</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N7">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O7">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P7">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q7">
-        <v>9.428482652595372</v>
+        <v>9.560505213857001</v>
       </c>
       <c r="R7">
-        <v>9.428482652595372</v>
+        <v>38.242020855428</v>
       </c>
       <c r="S7">
-        <v>0.02176587863109774</v>
+        <v>0.01881040910608281</v>
       </c>
       <c r="T7">
-        <v>0.02176587863109774</v>
+        <v>0.01068121974748446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H8">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I8">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J8">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N8">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O8">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P8">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q8">
-        <v>11.03247142126078</v>
+        <v>11.72206497021817</v>
       </c>
       <c r="R8">
-        <v>11.03247142126078</v>
+        <v>70.33238982130901</v>
       </c>
       <c r="S8">
-        <v>0.02546872522378939</v>
+        <v>0.02306330394949191</v>
       </c>
       <c r="T8">
-        <v>0.02546872522378939</v>
+        <v>0.01964424719831487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H9">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I9">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J9">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N9">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O9">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P9">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q9">
-        <v>8.665508669527906</v>
+        <v>9.605503638003778</v>
       </c>
       <c r="R9">
-        <v>8.665508669527906</v>
+        <v>86.44953274203399</v>
       </c>
       <c r="S9">
-        <v>0.02000453486815829</v>
+        <v>0.01889894404732244</v>
       </c>
       <c r="T9">
-        <v>0.02000453486815829</v>
+        <v>0.02414585933562017</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H10">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I10">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J10">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N10">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O10">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P10">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q10">
-        <v>6.871645243230195</v>
+        <v>8.83457741521911</v>
       </c>
       <c r="R10">
-        <v>6.871645243230195</v>
+        <v>79.511196736972</v>
       </c>
       <c r="S10">
-        <v>0.01586335806843079</v>
+        <v>0.01738213742290175</v>
       </c>
       <c r="T10">
-        <v>0.01586335806843079</v>
+        <v>0.02220794157149052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H11">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I11">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J11">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N11">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O11">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P11">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q11">
-        <v>10.606040542284</v>
+        <v>11.42581260350444</v>
       </c>
       <c r="R11">
-        <v>10.606040542284</v>
+        <v>102.83231343154</v>
       </c>
       <c r="S11">
-        <v>0.02448429929881769</v>
+        <v>0.0224804238514346</v>
       </c>
       <c r="T11">
-        <v>0.02448429929881769</v>
+        <v>0.02872166565299529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H12">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I12">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J12">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N12">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O12">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P12">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q12">
-        <v>7.386634019075005</v>
+        <v>7.936202200276776</v>
       </c>
       <c r="R12">
-        <v>7.386634019075005</v>
+        <v>71.42581980249099</v>
       </c>
       <c r="S12">
-        <v>0.01705222202506438</v>
+        <v>0.01561457337206715</v>
       </c>
       <c r="T12">
-        <v>0.01705222202506438</v>
+        <v>0.01994964857738019</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.21373426884061</v>
+        <v>2.315107666666667</v>
       </c>
       <c r="H13">
-        <v>2.21373426884061</v>
+        <v>6.945323</v>
       </c>
       <c r="I13">
-        <v>0.1179172016422701</v>
+        <v>0.1108717949045405</v>
       </c>
       <c r="J13">
-        <v>0.1179172016422701</v>
+        <v>0.1261104649423038</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N13">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O13">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P13">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q13">
-        <v>6.516744923804878</v>
+        <v>6.827105499663167</v>
       </c>
       <c r="R13">
-        <v>6.516744923804878</v>
+        <v>40.96263299797901</v>
       </c>
       <c r="S13">
-        <v>0.01504406215800952</v>
+        <v>0.01343241226132267</v>
       </c>
       <c r="T13">
-        <v>0.01504406215800952</v>
+        <v>0.0114411026065028</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H14">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I14">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J14">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N14">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O14">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P14">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q14">
-        <v>12.25037604431574</v>
+        <v>19.589641902091</v>
       </c>
       <c r="R14">
-        <v>12.25037604431574</v>
+        <v>117.537851412546</v>
       </c>
       <c r="S14">
-        <v>0.02828028729442332</v>
+        <v>0.03854285627980263</v>
       </c>
       <c r="T14">
-        <v>0.02828028729442332</v>
+        <v>0.0328290082872643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H15">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I15">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J15">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N15">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O15">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P15">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q15">
-        <v>9.622117815997354</v>
+        <v>16.05249391091067</v>
       </c>
       <c r="R15">
-        <v>9.622117815997354</v>
+        <v>144.472445198196</v>
       </c>
       <c r="S15">
-        <v>0.02221289005601246</v>
+        <v>0.03158347502383878</v>
       </c>
       <c r="T15">
-        <v>0.02221289005601246</v>
+        <v>0.04035199762199037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H16">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I16">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J16">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N16">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O16">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P16">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q16">
-        <v>7.630224911390102</v>
+        <v>14.76413996681867</v>
       </c>
       <c r="R16">
-        <v>7.630224911390102</v>
+        <v>132.877259701368</v>
       </c>
       <c r="S16">
-        <v>0.01761455744987548</v>
+        <v>0.02904862312849328</v>
       </c>
       <c r="T16">
-        <v>0.01761455744987548</v>
+        <v>0.03711339460012927</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H17">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I17">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J17">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N17">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O17">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P17">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q17">
-        <v>11.77687029706254</v>
+        <v>19.09455184830666</v>
       </c>
       <c r="R17">
-        <v>11.77687029706254</v>
+        <v>171.85096663476</v>
       </c>
       <c r="S17">
-        <v>0.02718718790551971</v>
+        <v>0.03756876063864991</v>
       </c>
       <c r="T17">
-        <v>0.02718718790551971</v>
+        <v>0.04799897854202839</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H18">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I18">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J18">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N18">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O18">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P18">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q18">
-        <v>8.202064703382947</v>
+        <v>13.26279623607267</v>
       </c>
       <c r="R18">
-        <v>8.202064703382947</v>
+        <v>119.365166124654</v>
       </c>
       <c r="S18">
-        <v>0.01893466334257946</v>
+        <v>0.02609471126374658</v>
       </c>
       <c r="T18">
-        <v>0.01893466334257946</v>
+        <v>0.03333938795735609</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.45811443510512</v>
+        <v>3.868954</v>
       </c>
       <c r="H19">
-        <v>2.45811443510512</v>
+        <v>11.606862</v>
       </c>
       <c r="I19">
-        <v>0.1309344032768076</v>
+        <v>0.1852863607854243</v>
       </c>
       <c r="J19">
-        <v>0.1309344032768076</v>
+        <v>0.2107528711538914</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N19">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O19">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P19">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q19">
-        <v>7.236146177333335</v>
+        <v>11.409299667421</v>
       </c>
       <c r="R19">
-        <v>7.236146177333335</v>
+        <v>68.45579800452602</v>
       </c>
       <c r="S19">
-        <v>0.0167048172283972</v>
+        <v>0.0224479344508931</v>
       </c>
       <c r="T19">
-        <v>0.0167048172283972</v>
+        <v>0.01912010414512303</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H20">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I20">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J20">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N20">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O20">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P20">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q20">
-        <v>25.92647818900509</v>
+        <v>28.59564760706</v>
       </c>
       <c r="R20">
-        <v>25.92647818900509</v>
+        <v>171.57388564236</v>
       </c>
       <c r="S20">
-        <v>0.05985189753076012</v>
+        <v>0.05626228092659268</v>
       </c>
       <c r="T20">
-        <v>0.05985189753076012</v>
+        <v>0.0479215882027766</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H21">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I21">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J21">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N21">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O21">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P21">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q21">
-        <v>20.36407917487949</v>
+        <v>23.43235580237333</v>
       </c>
       <c r="R21">
-        <v>20.36407917487949</v>
+        <v>210.89120222136</v>
       </c>
       <c r="S21">
-        <v>0.04701096582412242</v>
+        <v>0.04610344214059738</v>
       </c>
       <c r="T21">
-        <v>0.04701096582412242</v>
+        <v>0.05890314432527698</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H22">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I22">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J22">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N22">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O22">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P22">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q22">
-        <v>16.14847242457924</v>
+        <v>21.55170297765333</v>
       </c>
       <c r="R22">
-        <v>16.14847242457924</v>
+        <v>193.96532679888</v>
       </c>
       <c r="S22">
-        <v>0.03727913640210891</v>
+        <v>0.04240323506699841</v>
       </c>
       <c r="T22">
-        <v>0.03727913640210891</v>
+        <v>0.0541756484774629</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H23">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I23">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J23">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N23">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O23">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P23">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q23">
-        <v>24.92435903901991</v>
+        <v>27.87294829573333</v>
       </c>
       <c r="R23">
-        <v>24.92435903901991</v>
+        <v>250.8565346616</v>
       </c>
       <c r="S23">
-        <v>0.05753848140685475</v>
+        <v>0.05484036133106383</v>
       </c>
       <c r="T23">
-        <v>0.05753848140685475</v>
+        <v>0.07006569506205067</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H24">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I24">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J24">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N24">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O24">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P24">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q24">
-        <v>17.35870399959991</v>
+        <v>19.36014192329333</v>
       </c>
       <c r="R24">
-        <v>17.35870399959991</v>
+        <v>174.24127730964</v>
       </c>
       <c r="S24">
-        <v>0.04007298505708532</v>
+        <v>0.03809131230859444</v>
       </c>
       <c r="T24">
-        <v>0.04007298505708532</v>
+        <v>0.04866660627225924</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.20230971337429</v>
+        <v>5.64764</v>
       </c>
       <c r="H25">
-        <v>5.20230971337429</v>
+        <v>16.94292</v>
       </c>
       <c r="I25">
-        <v>0.277107244583051</v>
+        <v>0.2704686234641698</v>
       </c>
       <c r="J25">
-        <v>0.277107244583051</v>
+        <v>0.3076429301675758</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N25">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O25">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P25">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q25">
-        <v>15.31445119402165</v>
+        <v>16.65453173486</v>
       </c>
       <c r="R25">
-        <v>15.31445119402165</v>
+        <v>99.92719040916002</v>
       </c>
       <c r="S25">
-        <v>0.03535377836211947</v>
+        <v>0.03276799169032298</v>
       </c>
       <c r="T25">
-        <v>0.03535377836211947</v>
+        <v>0.02791024782774946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H26">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I26">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J26">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N26">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O26">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P26">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q26">
-        <v>7.294254657782829</v>
+        <v>7.492353276446166</v>
       </c>
       <c r="R26">
-        <v>7.294254657782829</v>
+        <v>44.95411965867699</v>
       </c>
       <c r="S26">
-        <v>0.01683896205100585</v>
+        <v>0.01474129527098445</v>
       </c>
       <c r="T26">
-        <v>0.01683896205100585</v>
+        <v>0.0125559481399866</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H27">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I27">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J27">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N27">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O27">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P27">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q27">
-        <v>5.729308018233509</v>
+        <v>6.139517809955778</v>
       </c>
       <c r="R27">
-        <v>5.729308018233509</v>
+        <v>55.25566028960199</v>
       </c>
       <c r="S27">
-        <v>0.01322624515098606</v>
+        <v>0.01207957520403452</v>
       </c>
       <c r="T27">
-        <v>0.01322624515098606</v>
+        <v>0.01543322859628162</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H28">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I28">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J28">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N28">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O28">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P28">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q28">
-        <v>4.543273071659134</v>
+        <v>5.64676746043511</v>
       </c>
       <c r="R28">
-        <v>4.543273071659134</v>
+        <v>50.820907143916</v>
       </c>
       <c r="S28">
-        <v>0.01048825499386653</v>
+        <v>0.011110082959188</v>
       </c>
       <c r="T28">
-        <v>0.01048825499386653</v>
+        <v>0.01419457614499002</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H29">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I29">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J29">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N29">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O29">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P29">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q29">
-        <v>7.012314618563284</v>
+        <v>7.302998636624442</v>
       </c>
       <c r="R29">
-        <v>7.012314618563284</v>
+        <v>65.72698772961999</v>
       </c>
       <c r="S29">
-        <v>0.01618809669960063</v>
+        <v>0.01436873773751655</v>
       </c>
       <c r="T29">
-        <v>0.01618809669960063</v>
+        <v>0.01835793149986316</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H30">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I30">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J30">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N30">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O30">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P30">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q30">
-        <v>4.883764257493777</v>
+        <v>5.072555962524776</v>
       </c>
       <c r="R30">
-        <v>4.883764257493777</v>
+        <v>45.65300366272299</v>
       </c>
       <c r="S30">
-        <v>0.01127428707335445</v>
+        <v>0.009980314924183451</v>
       </c>
       <c r="T30">
-        <v>0.01127428707335445</v>
+        <v>0.01275115052360115</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.46363773673286</v>
+        <v>1.479739666666666</v>
       </c>
       <c r="H31">
-        <v>1.46363773673286</v>
+        <v>4.439219</v>
       </c>
       <c r="I31">
-        <v>0.0779624133586518</v>
+        <v>0.07086555636135849</v>
       </c>
       <c r="J31">
-        <v>0.0779624133586518</v>
+        <v>0.080605606401705</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N31">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O31">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P31">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q31">
-        <v>4.30862634481351</v>
+        <v>4.363658313531166</v>
       </c>
       <c r="R31">
-        <v>4.30862634481351</v>
+        <v>26.181949881187</v>
       </c>
       <c r="S31">
-        <v>0.00994656738983829</v>
+        <v>0.008585550265451521</v>
       </c>
       <c r="T31">
-        <v>0.00994656738983829</v>
+        <v>0.007312771496982465</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H32">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I32">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J32">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.98364757529763</v>
+        <v>5.0632915</v>
       </c>
       <c r="N32">
-        <v>4.98364757529763</v>
+        <v>10.126583</v>
       </c>
       <c r="O32">
-        <v>0.2159882092610614</v>
+        <v>0.2080177737660798</v>
       </c>
       <c r="P32">
-        <v>0.2159882092610614</v>
+        <v>0.155770159179908</v>
       </c>
       <c r="Q32">
-        <v>21.09571568136937</v>
+        <v>21.911312953586</v>
       </c>
       <c r="R32">
-        <v>21.09571568136937</v>
+        <v>87.64525181434401</v>
       </c>
       <c r="S32">
-        <v>0.04869996626980447</v>
+        <v>0.04311077202394895</v>
       </c>
       <c r="T32">
-        <v>0.04869996626980447</v>
+        <v>0.02447983065517685</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H33">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I33">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J33">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.91443037743923</v>
+        <v>4.149052666666667</v>
       </c>
       <c r="N33">
-        <v>3.91443037743923</v>
+        <v>12.447158</v>
       </c>
       <c r="O33">
-        <v>0.1696489959865806</v>
+        <v>0.1704576358991413</v>
       </c>
       <c r="P33">
-        <v>0.1696489959865806</v>
+        <v>0.1914659449290511</v>
       </c>
       <c r="Q33">
-        <v>16.56973312203798</v>
+        <v>17.95495903015734</v>
       </c>
       <c r="R33">
-        <v>16.56973312203798</v>
+        <v>107.729754180944</v>
       </c>
       <c r="S33">
-        <v>0.03825162683888289</v>
+        <v>0.03532659804951466</v>
       </c>
       <c r="T33">
-        <v>0.03825162683888289</v>
+        <v>0.03008954945396979</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H34">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I34">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J34">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.10409670209833</v>
+        <v>3.816054666666667</v>
       </c>
       <c r="N34">
-        <v>3.10409670209833</v>
+        <v>11.448164</v>
       </c>
       <c r="O34">
-        <v>0.1345296347563952</v>
+        <v>0.1567769101047529</v>
       </c>
       <c r="P34">
-        <v>0.1345296347563952</v>
+        <v>0.17609911740196</v>
       </c>
       <c r="Q34">
-        <v>13.13960116271503</v>
+        <v>16.51391551312533</v>
       </c>
       <c r="R34">
-        <v>13.13960116271503</v>
+        <v>99.083493078752</v>
       </c>
       <c r="S34">
-        <v>0.03033308483523173</v>
+        <v>0.03249132758119756</v>
       </c>
       <c r="T34">
-        <v>0.03033308483523173</v>
+        <v>0.02767459823641322</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H35">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I35">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J35">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.79101791555075</v>
+        <v>4.935326666666666</v>
       </c>
       <c r="N35">
-        <v>4.79101791555075</v>
+        <v>14.80598</v>
       </c>
       <c r="O35">
-        <v>0.2076397587274557</v>
+        <v>0.2027605295899648</v>
       </c>
       <c r="P35">
-        <v>0.2076397587274557</v>
+        <v>0.2277500575874936</v>
       </c>
       <c r="Q35">
-        <v>20.28031682492507</v>
+        <v>21.35754718477333</v>
       </c>
       <c r="R35">
-        <v>20.28031682492507</v>
+        <v>128.14528310864</v>
       </c>
       <c r="S35">
-        <v>0.04681759842767696</v>
+        <v>0.04202123120708783</v>
       </c>
       <c r="T35">
-        <v>0.04681759842767696</v>
+        <v>0.03579172590437815</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H36">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I36">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J36">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.33673021330766</v>
+        <v>3.428005666666666</v>
       </c>
       <c r="N36">
-        <v>3.33673021330766</v>
+        <v>10.284017</v>
       </c>
       <c r="O36">
-        <v>0.1446118275160257</v>
+        <v>0.1408344961449496</v>
       </c>
       <c r="P36">
-        <v>0.1446118275160257</v>
+        <v>0.1581918565323445</v>
       </c>
       <c r="Q36">
-        <v>14.12433580461787</v>
+        <v>14.83463967440933</v>
       </c>
       <c r="R36">
-        <v>14.12433580461787</v>
+        <v>89.00783804645599</v>
       </c>
       <c r="S36">
-        <v>0.03260636840473533</v>
+        <v>0.02918733215191576</v>
       </c>
       <c r="T36">
-        <v>0.03260636840473533</v>
+        <v>0.02486040894692314</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.23298705669602</v>
+        <v>4.327484</v>
       </c>
       <c r="H37">
-        <v>4.23298705669602</v>
+        <v>8.654968</v>
       </c>
       <c r="I37">
-        <v>0.2254751147593507</v>
+        <v>0.2072456177347032</v>
       </c>
       <c r="J37">
-        <v>0.2254751147593507</v>
+        <v>0.1571535317422619</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.94377921303891</v>
+        <v>2.9489365</v>
       </c>
       <c r="N37">
-        <v>2.94377921303891</v>
+        <v>5.897873000000001</v>
       </c>
       <c r="O37">
-        <v>0.1275815737524816</v>
+        <v>0.1211526544951116</v>
       </c>
       <c r="P37">
-        <v>0.1275815737524816</v>
+        <v>0.09072286436924296</v>
       </c>
       <c r="Q37">
-        <v>12.4609793065645</v>
+        <v>12.761475520766</v>
       </c>
       <c r="R37">
-        <v>12.4609793065645</v>
+        <v>51.04590208306401</v>
       </c>
       <c r="S37">
-        <v>0.02876646998301935</v>
+        <v>0.02510835672103847</v>
       </c>
       <c r="T37">
-        <v>0.02876646998301935</v>
+        <v>0.01425741854540074</v>
       </c>
     </row>
   </sheetData>
